--- a/series.xlsx
+++ b/series.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Fred/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F13281-D19F-9844-8331-1B118C67EE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3AE50-6340-C74C-8DE3-D7A504361D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16480"/>
+    <workbookView xWindow="10840" yWindow="460" windowWidth="17680" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="series" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>PIB</t>
   </si>
@@ -33,11 +33,14 @@
   <si>
     <t>Resultado</t>
   </si>
+  <si>
+    <t>IC_Br</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -871,16 +874,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -893,8 +896,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4.3899999999999997</v>
       </c>
@@ -907,8 +913,11 @@
       <c r="D2">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.39</v>
       </c>
@@ -921,8 +930,11 @@
       <c r="D3">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3.05</v>
       </c>
@@ -935,8 +947,11 @@
       <c r="D4">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.1399999999999999</v>
       </c>
@@ -949,8 +964,11 @@
       <c r="D5">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5.76</v>
       </c>
@@ -963,8 +981,11 @@
       <c r="D6">
         <v>2.52</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.2</v>
       </c>
@@ -977,8 +998,11 @@
       <c r="D7">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.96</v>
       </c>
@@ -991,8 +1015,11 @@
       <c r="D8">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6.07</v>
       </c>
@@ -1005,8 +1032,11 @@
       <c r="D9">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5.09</v>
       </c>
@@ -1019,8 +1049,11 @@
       <c r="D10">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-0.13</v>
       </c>
@@ -1033,8 +1066,11 @@
       <c r="D11">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7.53</v>
       </c>
@@ -1047,8 +1083,11 @@
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.97</v>
       </c>
@@ -1061,8 +1100,11 @@
       <c r="D13">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.92</v>
       </c>
@@ -1075,8 +1117,11 @@
       <c r="D14">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.01</v>
       </c>
@@ -1089,8 +1134,11 @@
       <c r="D15">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -1103,8 +1151,11 @@
       <c r="D16">
         <v>-0.41</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-3.55</v>
       </c>
@@ -1117,8 +1168,11 @@
       <c r="D17">
         <v>-2.0099999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-3.28</v>
       </c>
@@ -1131,8 +1185,11 @@
       <c r="D18">
         <v>-2.57</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.32</v>
       </c>
@@ -1145,8 +1202,11 @@
       <c r="D19">
         <v>-1.89</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.78</v>
       </c>
@@ -1159,8 +1219,11 @@
       <c r="D20">
         <v>-1.72</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.22</v>
       </c>
@@ -1173,8 +1236,11 @@
       <c r="D21">
         <v>-1.29</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-3.28</v>
       </c>
@@ -1187,8 +1253,11 @@
       <c r="D22">
         <v>-9.77</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.76</v>
       </c>
@@ -1201,8 +1270,11 @@
       <c r="D23">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3.02</v>
       </c>
@@ -1215,8 +1287,11 @@
       <c r="D24">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2.91</v>
       </c>
@@ -1228,6 +1303,9 @@
       </c>
       <c r="D25">
         <v>-2.12</v>
+      </c>
+      <c r="E25">
+        <v>-6</v>
       </c>
     </row>
   </sheetData>
